--- a/기획/CSV/Symptom.xlsx
+++ b/기획/CSV/Symptom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seobok\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\강의자료\2022 2학기\오픈소스소프트웨어\OSS 기말 프로젝트\OSS\기획\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A47BA9FE-5D12-42D5-80C1-F11AAC10F022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10144516-2440-4A00-BFC9-44AD793EE8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Symptom" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Title</t>
   </si>
@@ -76,31 +76,75 @@
     <t>지능 저하1</t>
   </si>
   <si>
+    <t>피부 반점</t>
+  </si>
+  <si>
+    <t>소리 민감도 증가1</t>
+  </si>
+  <si>
+    <t>소리 민감도 증가2</t>
+  </si>
+  <si>
+    <t>마약을 한 것처럼 잠을 안자도 됩니다 증상이 노출되기 쉽습니다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>훨씬 빠르게 움직이게 됩니다 잠을 자지 않습니다 증상이 노출됩니다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>며칠 잠을 안 잔 듯 멍한 상태가 지속됩니다 증상이 노출되기 쉽지 않습니다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본적인 대화도 되지 않습니다 동물과 같아집니다 증상이 노출됩니다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지능 저하3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>지능 저하2</t>
-  </si>
-  <si>
-    <t>피부 반점</t>
-  </si>
-  <si>
-    <t>소리 민감도 증가1</t>
-  </si>
-  <si>
-    <t>소리 민감도 증가2</t>
-  </si>
-  <si>
-    <t>빛 민감도 감소1</t>
-  </si>
-  <si>
-    <t>빛 민감도 감소2</t>
-  </si>
-  <si>
-    <t>빛 민감도 감소3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>어린아이와 같은 지능을 갖게 됩니다 증상이 노출되기 쉽습니다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>피부에 반점이 생깁니다 증상이 노출되기 쉽지 않습니다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>평소 못듣던 거리의 소리가 들립니다 증상이 노출됩니다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>소리에 더 민감하게 반응하며 소리에 불편함을 느낍니다 증상이 노출되기 쉽습니다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>빛 민감도 증가1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>빛 민감도 증가2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>평소보다 어두운 곳에 빠른 적응을 하게 됩니다 증상이 노출되기 쉽지 않습니다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>어두운 곳에서도 빛이 있는 것처럼 잘 보게 됩니다 증상이 노출되기 쉽지 않습니다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1045,12 +1089,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -1158,6 +1211,9 @@
       <c r="A7" t="s">
         <v>15</v>
       </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
       <c r="C7">
         <v>3</v>
       </c>
@@ -1172,6 +1228,9 @@
       <c r="A8" t="s">
         <v>16</v>
       </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
       <c r="C8">
         <v>5</v>
       </c>
@@ -1186,6 +1245,9 @@
       <c r="A9" t="s">
         <v>17</v>
       </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
       <c r="C9">
         <v>3</v>
       </c>
@@ -1198,83 +1260,101 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13">
         <v>6</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14">
         <v>8</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
       </c>
       <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
         <v>3</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
       </c>
       <c r="E15">
         <v>6</v>
@@ -1282,16 +1362,19 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="E16">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/기획/CSV/Symptom.xlsx
+++ b/기획/CSV/Symptom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdhhi\Desktop\서울과학기술대학교\강의자료\2022 2학기\오픈소스소프트웨어\OSS 기말 프로젝트\OSS\기획\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10144516-2440-4A00-BFC9-44AD793EE8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE1DFAB-B7FD-47B5-93BC-B6796C67B695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Symptom" sheetId="1" r:id="rId1"/>
@@ -86,59 +86,45 @@
   </si>
   <si>
     <t>마약을 한 것처럼 잠을 안자도 됩니다 증상이 노출되기 쉽습니다</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>훨씬 빠르게 움직이게 됩니다 잠을 자지 않습니다 증상이 노출됩니다</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>며칠 잠을 안 잔 듯 멍한 상태가 지속됩니다 증상이 노출되기 쉽지 않습니다</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지능 저하2</t>
+  </si>
+  <si>
+    <t>어린아이와 같은 지능을 갖게 됩니다 증상이 노출되기 쉽습니다</t>
+  </si>
+  <si>
+    <t>지능 저하3</t>
   </si>
   <si>
     <t>기본적인 대화도 되지 않습니다 동물과 같아집니다 증상이 노출됩니다</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>지능 저하3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>지능 저하2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>어린아이와 같은 지능을 갖게 됩니다 증상이 노출되기 쉽습니다</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>피부에 반점이 생깁니다 증상이 노출되기 쉽지 않습니다</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>소리에 더 민감하게 반응하며 소리에 불편함을 느낍니다 증상이 노출되기 쉽습니다</t>
   </si>
   <si>
     <t>평소 못듣던 거리의 소리가 들립니다 증상이 노출됩니다</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>소리에 더 민감하게 반응하며 소리에 불편함을 느낍니다 증상이 노출되기 쉽습니다</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>빛 민감도 증가1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>평소보다 어두운 곳에 빠른 적응을 하게 됩니다 증상이 노출되기 쉽지 않습니다</t>
   </si>
   <si>
     <t>빛 민감도 증가2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>평소보다 어두운 곳에 빠른 적응을 하게 됩니다 증상이 노출되기 쉽지 않습니다</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>어두운 곳에서도 빛이 있는 것처럼 잘 보게 됩니다 증상이 노출되기 쉽지 않습니다</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1093,7 +1079,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1252,7 +1238,7 @@
         <v>3</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -1260,16 +1246,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -1277,16 +1263,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>15</v>
@@ -1314,13 +1300,13 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E13">
         <v>8</v>
@@ -1331,13 +1317,13 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>4</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -1348,7 +1334,7 @@
         <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -1362,7 +1348,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
